--- a/Documents/Data/Language History & General Works/Language-History-General-Works.xlsx
+++ b/Documents/Data/Language History & General Works/Language-History-General-Works.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17329"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17830"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="54">
   <si>
     <t>Title</t>
   </si>
@@ -178,6 +178,9 @@
   </si>
   <si>
     <t>Described by Mary Beard in The Independent as 'the Rolls Royce of textbooks', Kennedy's classic 1888 guide has remained the pre-eminent Latin reference grammar in schools and universities for well over a century. This is a reissue of the first edition, which appeared the year before the author's death. Benjamin Hall Kennedy (1804-1889), headmaster of Shrewsbury School for thirty years before becoming Regius Professor of Greek at Cambridge, was probably assisted by his daughters in producing this completely revised version of an earlier, unsuccessful publication. From tables of nouns and verbs to obscure nuances of style, the book covered all the key points of Latin grammar and was detailed, well-organised and easy to use. This original Victorian edition will fascinate present-day students and teachers of Latin and historians of education.</t>
+  </si>
+  <si>
+    <t>ISBN13</t>
   </si>
 </sst>
 </file>
@@ -188,7 +191,7 @@
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -265,6 +268,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -288,7 +297,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -311,6 +320,9 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="6" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="8" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -626,28 +638,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="7.88671875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="27.109375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="22.6640625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="32.109375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="13.88671875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="13.88671875" style="17" customWidth="1"/>
-    <col min="7" max="7" width="19.88671875" style="2" customWidth="1"/>
-    <col min="8" max="8" width="20.77734375" style="2" customWidth="1"/>
-    <col min="9" max="9" width="0.109375" style="2" customWidth="1"/>
-    <col min="10" max="10" width="47.21875" style="2" customWidth="1"/>
-    <col min="11" max="16384" width="8.88671875" style="2"/>
+    <col min="1" max="1" width="7.85546875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="27.140625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="22.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="32.140625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="16" style="22" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" style="17" customWidth="1"/>
+    <col min="8" max="8" width="19.85546875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="20.7109375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="0.140625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="47.28515625" style="2" customWidth="1"/>
+    <col min="12" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="8" customFormat="1">
+    <row r="1" spans="1:11" s="8" customFormat="1">
       <c r="A1" s="8" t="s">
         <v>5</v>
       </c>
@@ -663,20 +676,23 @@
       <c r="E1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="G1" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="H1" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="I1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="K1" s="8" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:11">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -692,17 +708,20 @@
       <c r="E2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="18">
+      <c r="F2" s="21">
+        <v>9780321573513</v>
+      </c>
+      <c r="G2" s="18">
         <v>43</v>
       </c>
-      <c r="G2" s="12">
+      <c r="H2" s="12">
         <v>41640</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="43.2">
+    <row r="3" spans="1:11" ht="45">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -718,20 +737,23 @@
       <c r="E3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="19">
+      <c r="F3" s="21">
+        <v>9780224100809</v>
+      </c>
+      <c r="G3" s="19">
         <v>13.05</v>
       </c>
-      <c r="G3" s="10">
+      <c r="H3" s="10">
         <v>42333</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="J3" s="13" t="s">
+      <c r="K3" s="13" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="28.8">
+    <row r="4" spans="1:11" ht="45">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -747,20 +769,23 @@
       <c r="E4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="19">
+      <c r="F4" s="21">
+        <v>9781781253502</v>
+      </c>
+      <c r="G4" s="19">
         <v>17.100000000000001</v>
       </c>
-      <c r="G4" s="10">
+      <c r="H4" s="10">
         <v>42264</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="J4" s="13" t="s">
+      <c r="K4" s="13" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="28.8">
+    <row r="5" spans="1:11" ht="30">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -776,20 +801,23 @@
       <c r="E5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="19">
+      <c r="F5" s="21">
+        <v>9781848548862</v>
+      </c>
+      <c r="G5" s="19">
         <v>25.56</v>
       </c>
-      <c r="G5" s="10">
+      <c r="H5" s="10">
         <v>41585</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="I5" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="J5" s="14" t="s">
+      <c r="K5" s="14" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="43.2">
+    <row r="6" spans="1:11" ht="45">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -805,20 +833,23 @@
       <c r="E6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="19">
+      <c r="F6" s="21">
+        <v>9781910931264</v>
+      </c>
+      <c r="G6" s="19">
         <v>13.68</v>
       </c>
-      <c r="G6" s="10">
+      <c r="H6" s="10">
         <v>42718</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="I6" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="J6" s="13" t="s">
+      <c r="K6" s="13" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="28.8">
+    <row r="7" spans="1:11" ht="30">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -834,20 +865,23 @@
       <c r="E7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="19">
+      <c r="F7" s="21">
+        <v>9780717171590</v>
+      </c>
+      <c r="G7" s="19">
         <v>11.12</v>
       </c>
-      <c r="G7" s="10">
+      <c r="H7" s="10">
         <v>42804</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="I7" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="J7" s="15" t="s">
+      <c r="K7" s="15" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="43.2">
+    <row r="8" spans="1:11" ht="45">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -863,20 +897,23 @@
       <c r="E8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="19">
+      <c r="F8" s="21">
+        <v>9781408706732</v>
+      </c>
+      <c r="G8" s="19">
         <v>20.13</v>
       </c>
-      <c r="G8" s="10">
+      <c r="H8" s="10">
         <v>42656</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="I8" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="J8" s="13" t="s">
+      <c r="K8" s="13" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="43.2">
+    <row r="9" spans="1:11" ht="45">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -892,20 +929,23 @@
       <c r="E9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="16">
+      <c r="F9" s="21">
+        <v>9781925240993</v>
+      </c>
+      <c r="G9" s="16">
         <v>23.02</v>
       </c>
-      <c r="G9" s="11">
+      <c r="H9" s="11">
         <v>42326</v>
       </c>
-      <c r="H9" s="7" t="s">
+      <c r="I9" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="J9" s="14" t="s">
+      <c r="K9" s="14" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="43.2">
+    <row r="10" spans="1:11" ht="60">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -921,20 +961,23 @@
       <c r="E10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F10" s="19">
+      <c r="F10" s="21">
+        <v>9780718193881</v>
+      </c>
+      <c r="G10" s="19">
         <v>12.19</v>
       </c>
-      <c r="G10" s="10">
+      <c r="H10" s="10">
         <v>42038</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="I10" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="J10" s="13" t="s">
+      <c r="K10" s="13" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:11">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -950,16 +993,19 @@
       <c r="E11" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F11" s="19">
+      <c r="F11" s="21">
+        <v>9781108012362</v>
+      </c>
+      <c r="G11" s="19">
         <v>32.840000000000003</v>
       </c>
-      <c r="G11" s="10">
+      <c r="H11" s="10">
         <v>40388</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="I11" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="J11" s="14" t="s">
+      <c r="K11" s="14" t="s">
         <v>52</v>
       </c>
     </row>
@@ -979,7 +1025,7 @@
     <hyperlink ref="D8" r:id="rId12" display="https://www.bookdepository.com/publishers/Little-Brown-Book-Group"/>
     <hyperlink ref="C9" r:id="rId13" display="https://www.bookdepository.com/author/Mary-Norris"/>
     <hyperlink ref="D9" r:id="rId14" display="https://www.bookdepository.com/publishers/Text-Publishing-Co"/>
-    <hyperlink ref="F9" r:id="rId15" display="https://www.bookdepository.com/Between-You-Me/9780393240184"/>
+    <hyperlink ref="G9" r:id="rId15" display="https://www.bookdepository.com/Between-You-Me/9780393240184"/>
     <hyperlink ref="C10" r:id="rId16" display="https://www.bookdepository.com/author/Keith-Houston"/>
     <hyperlink ref="D10" r:id="rId17" display="https://www.bookdepository.com/publishers/Penguin-Books-Ltd"/>
     <hyperlink ref="C11" r:id="rId18" display="https://www.bookdepository.com/author/Benjamin-Hall-Kennedy"/>
